--- a/picks/World Cup 2018 Sheet Shonah.xlsx
+++ b/picks/World Cup 2018 Sheet Shonah.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27211"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoblin/SideProjects/WorldCup/picks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="128">
   <si>
     <t>Name:</t>
   </si>
@@ -791,6 +796,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,24 +824,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1130,11 +1135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
@@ -1145,53 +1150,53 @@
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="H3" s="52" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="H3" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="53"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="H4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1199,7 +1204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1207,14 +1212,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1239,15 +1244,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" t="s">
         <v>47</v>
       </c>
@@ -1258,15 +1263,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" t="s">
         <v>76</v>
       </c>
@@ -1280,7 +1285,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -1297,7 +1302,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -1314,7 +1319,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1331,29 +1336,29 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="53" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="H14" s="52" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="53" t="s">
+      <c r="I14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H17" s="3" t="s">
         <v>64</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>82</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>83</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>87</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1508,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>88</v>
       </c>
@@ -1515,13 +1520,13 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>92</v>
       </c>
@@ -1553,7 +1558,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>93</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -1575,12 +1580,12 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="19"/>
       <c r="E32" s="21"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1617,7 @@
       </c>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>97</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>98</v>
       </c>
@@ -1632,35 +1637,33 @@
       <c r="E36" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" s="19"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="C38" s="53" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="53" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="F43" s="45"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1701,7 @@
       </c>
       <c r="F44" s="45"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>82</v>
       </c>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="F45" s="45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>87</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="F50" s="45"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -1772,13 +1775,13 @@
       </c>
       <c r="F51" s="45"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="F54" s="45"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>93</v>
       </c>
@@ -1818,7 +1821,7 @@
       </c>
       <c r="F55" s="45"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>50</v>
       </c>
@@ -1828,12 +1831,12 @@
       </c>
       <c r="F56" s="45"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
       <c r="E57" s="21"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1866,7 @@
       </c>
       <c r="F59" s="45"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>97</v>
       </c>
@@ -1873,7 +1876,7 @@
       </c>
       <c r="F60" s="45"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>98</v>
       </c>
@@ -1883,31 +1886,31 @@
       </c>
       <c r="F61" s="45"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C62" s="19"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="53" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="53"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="53" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
         <v>18</v>
       </c>
@@ -1920,7 +1923,7 @@
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C68" s="8" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B71" s="47" t="s">
         <v>85</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" s="47" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" s="47" t="s">
         <v>89</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="47" t="s">
         <v>88</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B76" s="47" t="s">
         <v>11</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B78" s="47" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" s="47" t="s">
         <v>91</v>
       </c>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="47" t="s">
         <v>51</v>
       </c>
@@ -2118,7 +2121,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="47" t="s">
         <v>98</v>
       </c>
@@ -2133,7 +2136,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="47" t="s">
         <v>69</v>
       </c>
@@ -2166,7 +2169,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="47" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2184,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="47" t="s">
         <v>83</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" s="47" t="s">
         <v>84</v>
       </c>
@@ -2229,7 +2232,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="47" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="47" t="s">
         <v>89</v>
       </c>
@@ -2277,7 +2280,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2298,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="47" t="s">
         <v>90</v>
       </c>
@@ -2310,7 +2313,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="47" t="s">
         <v>93</v>
       </c>
@@ -2325,7 +2328,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="47" t="s">
         <v>95</v>
       </c>
@@ -2358,7 +2361,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="47" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -2391,7 +2394,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="47" t="s">
         <v>101</v>
       </c>
@@ -2406,7 +2409,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="47" t="s">
         <v>69</v>
       </c>
@@ -2421,7 +2424,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2439,7 +2442,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="47" t="s">
         <v>82</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="47" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2472,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="47" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2487,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" s="47" t="s">
         <v>87</v>
       </c>
@@ -2517,7 +2520,7 @@
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B107" s="47" t="s">
         <v>90</v>
       </c>
@@ -2532,7 +2535,7 @@
       <c r="G107" s="46"/>
       <c r="H107" s="46"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B108" s="47" t="s">
         <v>71</v>
       </c>
@@ -2547,7 +2550,7 @@
       <c r="G108" s="46"/>
       <c r="H108" s="46"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="G109" s="46"/>
       <c r="H109" s="46"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="47" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="G110" s="46"/>
       <c r="H110" s="46"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="47" t="s">
         <v>93</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="G111" s="46"/>
       <c r="H111" s="46"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="47" t="s">
         <v>50</v>
       </c>
@@ -2610,7 +2613,7 @@
       <c r="G112" s="46"/>
       <c r="H112" s="46"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="G113" s="46"/>
       <c r="H113" s="46"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B114" s="47" t="s">
         <v>102</v>
       </c>
@@ -2643,7 +2646,7 @@
       <c r="G114" s="46"/>
       <c r="H114" s="46"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B115" s="47" t="s">
         <v>97</v>
       </c>
@@ -2658,7 +2661,7 @@
       <c r="G115" s="46"/>
       <c r="H115" s="46"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B116" s="47" t="s">
         <v>14</v>
       </c>
@@ -2673,28 +2676,28 @@
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:13">
-      <c r="C118" s="53" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C118" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="53"/>
+      <c r="D118" s="49"/>
       <c r="E118" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="53" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="59" t="s">
         <v>45</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>55</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B123" s="9" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2784,7 +2787,7 @@
       <c r="L125" s="19"/>
       <c r="M125" s="19"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B126" s="8"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -2798,7 +2801,7 @@
       <c r="L126" s="23"/>
       <c r="M126" s="19"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -2816,7 +2819,7 @@
       <c r="L127" s="19"/>
       <c r="M127" s="19"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -2832,7 +2835,7 @@
       <c r="L128" s="12"/>
       <c r="M128" s="19"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B129" s="8"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -2843,7 +2846,7 @@
       <c r="L129" s="19"/>
       <c r="M129" s="19"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>56</v>
       </c>
@@ -2859,7 +2862,7 @@
       <c r="L130" s="19"/>
       <c r="M130" s="19"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2880,7 @@
       <c r="L131" s="19"/>
       <c r="M131" s="19"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B132" s="8"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -2891,7 +2894,7 @@
       <c r="L132" s="24"/>
       <c r="M132" s="19"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -2907,7 +2910,7 @@
       <c r="K133" s="35"/>
       <c r="M133" s="24"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -2919,10 +2922,10 @@
       <c r="I134" s="1"/>
       <c r="K134" s="28"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K135" s="28"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -2933,7 +2936,7 @@
       <c r="D136" s="11"/>
       <c r="K136" s="28"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -2946,7 +2949,7 @@
       <c r="F137" s="12"/>
       <c r="K137" s="28"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -2959,7 +2962,7 @@
       <c r="K138" s="34"/>
       <c r="L138" s="19"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -2975,7 +2978,7 @@
       <c r="K139" s="36"/>
       <c r="L139" s="19"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -2997,7 +3000,7 @@
       <c r="J141" s="19"/>
       <c r="K141" s="32"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -3010,7 +3013,7 @@
       <c r="K142" s="32"/>
       <c r="L142" s="19"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>59</v>
       </c>
@@ -3025,7 +3028,7 @@
       <c r="J143" s="30"/>
       <c r="L143" s="19"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -3035,7 +3038,7 @@
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>114</v>
       </c>
@@ -3057,17 +3060,22 @@
       <c r="C146" s="12"/>
       <c r="D146" s="11"/>
     </row>
-    <row r="148" spans="1:6">
-      <c r="C148" s="53" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C148" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="53"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C13:D13"/>
@@ -3084,18 +3092,8 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A121:F121"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3105,14 +3103,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3122,13 +3115,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>